--- a/CompareSelectivityPredictions/OUTPUT/SelWin_SemiSel_EvaluationResults.xlsx
+++ b/CompareSelectivityPredictions/OUTPUT/SelWin_SemiSel_EvaluationResults.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>474.4</v>
+        <v>474.2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.140175425099138</v>
+        <v>1.483239697419133</v>
       </c>
       <c r="E2" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.816590212458495</v>
+        <v>1.673320053068151</v>
       </c>
       <c r="G2" t="n">
-        <v>137.2</v>
+        <v>138.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16794833886788</v>
+        <v>1.923538406167135</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>640.2</v>
+        <v>642.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.761944116355173</v>
+        <v>4.774934554525329</v>
       </c>
       <c r="E3" t="n">
         <v>1846</v>
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1617.4</v>
+        <v>1616.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.073644135332772</v>
+        <v>2.387467277262664</v>
       </c>
     </row>
     <row r="4">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>737.8</v>
+        <v>735.6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.761944116355173</v>
+        <v>4.774934554525329</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25.6</v>
+        <v>26.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.073644135332772</v>
+        <v>2.387467277262664</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.6</v>
+        <v>57.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.140175425099138</v>
+        <v>1.483239697419132</v>
       </c>
       <c r="E5" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.816590212458495</v>
+        <v>1.673320053068151</v>
       </c>
       <c r="G5" t="n">
-        <v>129.8</v>
+        <v>128.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16794833886788</v>
+        <v>1.923538406167135</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5835602094240837</v>
+        <v>0.584607329842932</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002527228981392054</v>
+        <v>0.002177658046396377</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9829319371727749</v>
+        <v>0.9830366492146597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000951094352072524</v>
+        <v>0.0008760837974178931</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9186387434554973</v>
+        <v>0.9185340314136126</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001508362334124399</v>
+        <v>0.002239712003791348</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3913605397376126</v>
+        <v>0.3919692995358389</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001404256264116805</v>
+        <v>0.001297421878058179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9125919913419913</v>
+        <v>0.91312675070028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004705132477514987</v>
+        <v>0.004345977248282717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8428463178860998</v>
+        <v>0.8376100410511225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01079892703727408</v>
+        <v>0.01393620893469245</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8917293233082706</v>
+        <v>0.8913533834586467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0021431868892841</v>
+        <v>0.002788044544020954</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5147540983606558</v>
+        <v>0.5180327868852459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02978016741735241</v>
+        <v>0.02743147627980579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5138576779026217</v>
+        <v>0.5176029962546818</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008119656699879685</v>
+        <v>0.007204263693509844</v>
       </c>
     </row>
     <row r="9">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.46456</v>
+        <v>0.4661799999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004180071769718791</v>
+        <v>0.003462946722085107</v>
       </c>
       <c r="E9" t="n">
         <v>0.9984</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.98444</v>
+        <v>0.9837</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001244186481199671</v>
+        <v>0.001466287829861531</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5439772226326418</v>
+        <v>0.5444956982764697</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009877779460749946</v>
+        <v>0.001182113681317084</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6578890390507256</v>
+        <v>0.6607557803721141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02301029503554741</v>
+        <v>0.02121369573065251</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6384195848966341</v>
+        <v>0.639822609296897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006533723949996876</v>
+        <v>0.008511632271844026</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5803952376312503</v>
+        <v>0.5813584371111691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002051439077973075</v>
+        <v>0.001794544981538362</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8245683049628141</v>
+        <v>0.8260282762928481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01172131127861175</v>
+        <v>0.01080595302391799</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7962907890869875</v>
+        <v>0.7969478339096445</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00361746585509442</v>
+        <v>0.004822699093697451</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.678157840173729</v>
+        <v>0.6787681285943451</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001303795621674262</v>
+        <v>0.001522895733545247</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7565657998563691</v>
+        <v>0.7582051441186641</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0148900837086762</v>
+        <v>0.01371573813990289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7491382120493024</v>
+        <v>0.7506456855893007</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004059742912049064</v>
+        <v>0.00430990279119973</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3317186023399497</v>
+        <v>0.3326124903371339</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001871969055758738</v>
+        <v>0.002618690233498633</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6781834851452174</v>
+        <v>0.6806181521845197</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02191009818865198</v>
+        <v>0.02019583950181272</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6188140684109429</v>
+        <v>0.6187767569577753</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00785694656491789</v>
+        <v>0.0113745297206097</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9174599999999999</v>
+        <v>0.91744</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001006479011206884</v>
+        <v>0.001715517414659502</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98424</v>
+        <v>0.9843400000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0009528903399657166</v>
+        <v>0.0008792041856133291</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9257000000000002</v>
+        <v>0.9262</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001144552314225982</v>
+        <v>0.001118033988749861</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.678157840173729</v>
+        <v>0.6787681285943451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001303795621674266</v>
+        <v>0.001522895733545234</v>
       </c>
       <c r="E15" t="n">
-        <v>0.756565799856369</v>
+        <v>0.758205144118664</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01489008370867622</v>
+        <v>0.01371573813990293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7491382120493023</v>
+        <v>0.7506456855893007</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004059742912049007</v>
+        <v>0.004309902791199758</v>
       </c>
     </row>
   </sheetData>
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>454</v>
+        <v>454.8</v>
       </c>
       <c r="D2" t="n">
-        <v>6.324555320336759</v>
+        <v>6.220932405998316</v>
       </c>
       <c r="E2" t="n">
-        <v>34.8</v>
+        <v>33.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.923538406167134</v>
+        <v>1.643167672515498</v>
       </c>
       <c r="G2" t="n">
-        <v>153</v>
+        <v>155.8</v>
       </c>
       <c r="H2" t="n">
-        <v>8.154753215150045</v>
+        <v>5.215361924162119</v>
       </c>
     </row>
     <row r="3">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>749.4</v>
+        <v>748</v>
       </c>
       <c r="D3" t="n">
-        <v>6.655824516917495</v>
+        <v>5.049752469181039</v>
       </c>
       <c r="E3" t="n">
-        <v>1843.6</v>
+        <v>1844</v>
       </c>
       <c r="F3" t="n">
-        <v>1.673320053068151</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="G3" t="n">
-        <v>1595.2</v>
+        <v>1596.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.387467277262664</v>
+        <v>4.722287581247038</v>
       </c>
     </row>
     <row r="4">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>628.6</v>
+        <v>630</v>
       </c>
       <c r="D4" t="n">
-        <v>6.655824516917495</v>
+        <v>5.049752469181039</v>
       </c>
       <c r="E4" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.673320053068151</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="G4" t="n">
-        <v>47.8</v>
+        <v>46.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.387467277262664</v>
+        <v>4.722287581247038</v>
       </c>
     </row>
     <row r="5">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>77.2</v>
       </c>
       <c r="D5" t="n">
-        <v>6.324555320336759</v>
+        <v>6.220932405998316</v>
       </c>
       <c r="E5" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.923538406167135</v>
+        <v>1.643167672515498</v>
       </c>
       <c r="G5" t="n">
-        <v>114</v>
+        <v>111.2</v>
       </c>
       <c r="H5" t="n">
-        <v>8.154753215150045</v>
+        <v>5.215361924162119</v>
       </c>
     </row>
     <row r="6">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6300523560209423</v>
+        <v>0.629738219895288</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003875760319020275</v>
+        <v>0.004570293789067026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.983455497382199</v>
+        <v>0.9831413612565445</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001720594421482192</v>
+        <v>0.001249982867676784</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9152879581151833</v>
+        <v>0.9173821989528795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004600184845337967</v>
+        <v>0.005094969895582344</v>
       </c>
     </row>
     <row r="7">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4193557730893015</v>
+        <v>0.4192403726107842</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00347648806402153</v>
+        <v>0.004166592481090802</v>
       </c>
       <c r="E7" t="n">
-        <v>0.865869551928602</v>
+        <v>0.8713513513513513</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04096830001978982</v>
+        <v>0.03109796838527796</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7617069930810404</v>
+        <v>0.7697364687281378</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01395621220320834</v>
+        <v>0.0235865117784394</v>
       </c>
     </row>
     <row r="8">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8533834586466165</v>
+        <v>0.8548872180451129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01188826188033224</v>
+        <v>0.01169348196616227</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5704918032786885</v>
+        <v>0.5540983606557377</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03153341649454319</v>
+        <v>0.02693717495927045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5730337078651686</v>
+        <v>0.5835205992509364</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03054214687322112</v>
+        <v>0.01953319072719895</v>
       </c>
     </row>
     <row r="9">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.54382</v>
+        <v>0.5428200000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004840144625938374</v>
+        <v>0.003643761792433742</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9970800000000001</v>
+        <v>0.99732</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008757853618324455</v>
+        <v>0.0006534523701081556</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9709199999999999</v>
+        <v>0.9716400000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001432480366357615</v>
+        <v>0.002833372548748207</v>
       </c>
     </row>
     <row r="10">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.562354231364609</v>
+        <v>0.5625816949459983</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004753086906386767</v>
+        <v>0.005471648021691222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6876248904159405</v>
+        <v>0.6771873105677914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03000533252914403</v>
+        <v>0.02358688356331776</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6538226337912825</v>
+        <v>0.6638029400684748</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02132528686501814</v>
+        <v>0.01894650589503148</v>
       </c>
     </row>
     <row r="11">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6209760590107247</v>
+        <v>0.6207967253058244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003579151901408855</v>
+        <v>0.004290369662477723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8395637883493535</v>
+        <v>0.834265964969451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01539416646798248</v>
+        <v>0.01207436853612474</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8027799649403569</v>
+        <v>0.8083536159015315</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01177991396405383</v>
+        <v>0.01076506339765562</v>
       </c>
     </row>
     <row r="12">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6986075493523358</v>
+        <v>0.6988514464681297</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005577184932066606</v>
+        <v>0.006452429674276499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7837856528562183</v>
+        <v>0.7756970981212706</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01607248924068254</v>
+        <v>0.0135954892734869</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7719702927639902</v>
+        <v>0.7775789240929057</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01538125548775732</v>
+        <v>0.01110002964054952</v>
       </c>
     </row>
     <row r="13">
@@ -1241,22 +1241,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3593721343166001</v>
+        <v>0.3599160459415268</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01034006133648498</v>
+        <v>0.01186666891513797</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6952409131747491</v>
+        <v>0.687225450806518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03445892914666987</v>
+        <v>0.02629270448036625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.614780559797118</v>
+        <v>0.6254337963022267</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0244530724455087</v>
+        <v>0.02412471475039337</v>
       </c>
     </row>
     <row r="14">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.90578</v>
+        <v>0.9064599999999998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006577005397595466</v>
+        <v>0.006946437936093577</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9860000000000001</v>
+        <v>0.9854800000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001027131929208683</v>
+        <v>0.0008642916174532759</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9333199999999999</v>
+        <v>0.9348600000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004455558326405365</v>
+        <v>0.003018774585821202</v>
       </c>
     </row>
     <row r="15">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6986075493523358</v>
+        <v>0.6988514464681297</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005577184932066606</v>
+        <v>0.00645242967427656</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7837856528562183</v>
+        <v>0.7756970981212706</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01607248924068254</v>
+        <v>0.01359548927348699</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7719702927639902</v>
+        <v>0.7775789240929057</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01538125548775726</v>
+        <v>0.01110002964054952</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>457.6</v>
+        <v>460</v>
       </c>
       <c r="D2" t="n">
-        <v>2.073644135332772</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="E2" t="n">
         <v>33.4</v>
       </c>
       <c r="F2" t="n">
-        <v>2.073644135332772</v>
+        <v>1.949358868961793</v>
       </c>
       <c r="G2" t="n">
-        <v>154.8</v>
+        <v>153.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.563705936241092</v>
+        <v>5.263078946776307</v>
       </c>
     </row>
     <row r="3">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>733.2</v>
+        <v>734.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5.495452665613635</v>
+        <v>7.436396977031282</v>
       </c>
       <c r="E3" t="n">
-        <v>1844.6</v>
+        <v>1844.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.140175425099138</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G3" t="n">
-        <v>1599.4</v>
+        <v>1601</v>
       </c>
       <c r="H3" t="n">
-        <v>4.159326868617084</v>
+        <v>2.645751311064591</v>
       </c>
     </row>
     <row r="4">
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>644.8</v>
+        <v>643.6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.495452665613635</v>
+        <v>7.436396977031282</v>
       </c>
       <c r="E4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="F4" t="n">
-        <v>1.140175425099138</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G4" t="n">
-        <v>43.6</v>
+        <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>4.159326868617084</v>
+        <v>2.645751311064591</v>
       </c>
     </row>
     <row r="5">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>2.073644135332772</v>
+        <v>1.224744871391589</v>
       </c>
       <c r="E5" t="n">
         <v>27.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2.073644135332772</v>
+        <v>1.949358868961793</v>
       </c>
       <c r="G5" t="n">
-        <v>112.2</v>
+        <v>113.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.563705936241092</v>
+        <v>5.263078946776307</v>
       </c>
     </row>
     <row r="6">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6234554973821991</v>
+        <v>0.6253403141361257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003214676739897134</v>
+        <v>0.003786321409793644</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9832460732984293</v>
+        <v>0.9833507853403141</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001334821862197066</v>
+        <v>0.001303654408166364</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9184293193717277</v>
+        <v>0.9187434554973821</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003193288100937574</v>
+        <v>0.002877200348488819</v>
       </c>
     </row>
     <row r="7">
@@ -1521,22 +1521,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4151010858119507</v>
+        <v>0.4168319208835495</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00247017847684709</v>
+        <v>0.002703512951269781</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8837362637362636</v>
+        <v>0.8880058774795616</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02874506970461177</v>
+        <v>0.02400609309015966</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7804189928447196</v>
+        <v>0.7855189526081491</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01787260825247695</v>
+        <v>0.01135750077866415</v>
       </c>
     </row>
     <row r="8">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8601503759398496</v>
+        <v>0.8646616541353384</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003897827322054085</v>
+        <v>0.002302152013893958</v>
       </c>
       <c r="E8" t="n">
         <v>0.5475409836065573</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03399416615299625</v>
+        <v>0.03195670276986545</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5797752808988764</v>
+        <v>0.5760299625468164</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01334721324434866</v>
+        <v>0.01971190616770152</v>
       </c>
     </row>
     <row r="9">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5320600000000001</v>
+        <v>0.5329400000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003973411632338151</v>
+        <v>0.005423375332760941</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9976200000000001</v>
+        <v>0.9977199999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006016643582596393</v>
+        <v>0.0004549725266430941</v>
       </c>
       <c r="G9" t="n">
-        <v>0.97346</v>
+        <v>0.9744200000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002529426812540726</v>
+        <v>0.001625423021862298</v>
       </c>
     </row>
     <row r="10">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.559964460596392</v>
+        <v>0.562492744802057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002503316004607011</v>
+        <v>0.002240892643661918</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6757359395733388</v>
+        <v>0.677149247577819</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02749395527262549</v>
+        <v>0.02692259770067238</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6652232463115102</v>
+        <v>0.6645232249964926</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01166683725268695</v>
+        <v>0.01344408377761291</v>
       </c>
     </row>
     <row r="11">
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6154477145562728</v>
+        <v>0.6174423224061212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00272014740267053</v>
+        <v>0.0030708854258273</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8335683669533553</v>
+        <v>0.8343021270028343</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01404564154401015</v>
+        <v>0.01375671132144497</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8093895775933333</v>
+        <v>0.8091477829161491</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006619893728374493</v>
+        <v>0.007404751224754088</v>
       </c>
     </row>
     <row r="12">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6961129238189814</v>
+        <v>0.6988039765596866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002977506728804758</v>
+        <v>0.002659131549161819</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7725806594614724</v>
+        <v>0.7726347427497362</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0170584516021654</v>
+        <v>0.01609742210633154</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7766192290069549</v>
+        <v>0.7752334840123005</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007088188312689885</v>
+        <v>0.009758257311909636</v>
       </c>
     </row>
     <row r="13">
@@ -1689,22 +1689,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3559205740098459</v>
+        <v>0.3608793729424563</v>
       </c>
       <c r="D13" t="n">
-        <v>0.005254827204152063</v>
+        <v>0.004436603493205957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6880728719776043</v>
+        <v>0.6899170335425697</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02899177972902728</v>
+        <v>0.02851407531629769</v>
       </c>
       <c r="G13" t="n">
-        <v>0.628853663565303</v>
+        <v>0.6292775642312612</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01497025139093291</v>
+        <v>0.01514846495857625</v>
       </c>
     </row>
     <row r="14">
@@ -1717,22 +1717,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.90786</v>
+        <v>0.9107000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002488573888796579</v>
+        <v>0.00141598022585064</v>
       </c>
       <c r="E14" t="n">
         <v>0.98528</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001077961038256927</v>
+        <v>0.001018331969448062</v>
       </c>
       <c r="G14" t="n">
-        <v>0.93446</v>
+        <v>0.9339600000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001988215280094184</v>
+        <v>0.002850964748992837</v>
       </c>
     </row>
     <row r="15">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6961129238189814</v>
+        <v>0.6988039765596866</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002977506728804783</v>
+        <v>0.00265913154916186</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7725806594614724</v>
+        <v>0.7726347427497362</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0170584516021654</v>
+        <v>0.0160974221063315</v>
       </c>
       <c r="G15" t="n">
-        <v>0.776619229006955</v>
+        <v>0.7752334840123005</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007088188312689864</v>
+        <v>0.009758257311909638</v>
       </c>
     </row>
   </sheetData>
@@ -2277,22 +2277,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>467.4</v>
+        <v>467.6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.673320053068151</v>
+        <v>3.911521443121589</v>
       </c>
       <c r="E2" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.643167672515498</v>
+        <v>1.51657508881031</v>
       </c>
       <c r="G2" t="n">
-        <v>136.8</v>
+        <v>135.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.271085446759225</v>
+        <v>2.880972058177587</v>
       </c>
     </row>
     <row r="3">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>713</v>
+        <v>715.8</v>
       </c>
       <c r="D3" t="n">
-        <v>10.22252415013044</v>
+        <v>10.10940156488009</v>
       </c>
       <c r="E3" t="n">
-        <v>1845.4</v>
+        <v>1845.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5477225575051661</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G3" t="n">
-        <v>1611.8</v>
+        <v>1612.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.774887385102321</v>
+        <v>2.073644135332772</v>
       </c>
     </row>
     <row r="4">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>665</v>
+        <v>662.2</v>
       </c>
       <c r="D4" t="n">
-        <v>10.22252415013044</v>
+        <v>10.10940156488009</v>
       </c>
       <c r="E4" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5477225575051661</v>
+        <v>0.8366600265340756</v>
       </c>
       <c r="G4" t="n">
-        <v>31.2</v>
+        <v>30.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.774887385102321</v>
+        <v>2.073644135332772</v>
       </c>
     </row>
     <row r="5">
@@ -2361,22 +2361,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.59999999999999</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>1.673320053068151</v>
+        <v>3.911521443121589</v>
       </c>
       <c r="E5" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.643167672515498</v>
+        <v>1.51657508881031</v>
       </c>
       <c r="G5" t="n">
-        <v>130.2</v>
+        <v>131.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.271085446759225</v>
+        <v>2.880972058177587</v>
       </c>
     </row>
     <row r="6">
@@ -2389,22 +2389,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6180104712041885</v>
+        <v>0.6195811518324608</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005523498175875614</v>
+        <v>0.006300150348268613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.98282722513089</v>
+        <v>0.9829319371727749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0007765652866068855</v>
+        <v>0.0007940183711048829</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9154973821989529</v>
+        <v>0.9151832460732985</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002177658046396345</v>
+        <v>0.001923683044070537</v>
       </c>
     </row>
     <row r="7">
@@ -2417,22 +2417,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4127776957821098</v>
+        <v>0.4139008407939496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003915689867733811</v>
+        <v>0.0048009083075128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8985172672672672</v>
+        <v>0.9084985931309462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01243485819514918</v>
+        <v>0.02101614643521901</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8144177166061484</v>
+        <v>0.8159350316539008</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01368058506755504</v>
+        <v>0.01098868064122693</v>
       </c>
     </row>
     <row r="8">
@@ -2445,22 +2445,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.8789473684210527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003145338445616845</v>
+        <v>0.007352483915642082</v>
       </c>
       <c r="E8" t="n">
-        <v>0.521311475409836</v>
+        <v>0.5180327868852459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02693717495927049</v>
+        <v>0.02486188670180839</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5123595505617977</v>
+        <v>0.5078651685393258</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01225125635490344</v>
+        <v>0.0107901575212644</v>
       </c>
     </row>
     <row r="9">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5174200000000001</v>
+        <v>0.51944</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007412624366578953</v>
+        <v>0.007313549070047999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9980399999999999</v>
+        <v>0.9982599999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003286335345030635</v>
+        <v>0.0004669047011971367</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9810000000000001</v>
+        <v>0.9813600000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001694107434609717</v>
+        <v>0.001275931032618909</v>
       </c>
     </row>
     <row r="10">
@@ -2501,22 +2501,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5616600924490782</v>
+        <v>0.5627769787489841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003480088690336656</v>
+        <v>0.00500046281998753</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6594250603467192</v>
+        <v>0.6594539986719137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01958271757188153</v>
+        <v>0.01861489179471928</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6289220396067693</v>
+        <v>0.6260030287028859</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009692450777728621</v>
+        <v>0.008798709416061786</v>
       </c>
     </row>
     <row r="11">
@@ -2529,22 +2529,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6115846374002821</v>
+        <v>0.6130436762340004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004569440516143384</v>
+        <v>0.005397077589307723</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8253082585159858</v>
+        <v>0.8253502656105235</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009964370133843296</v>
+        <v>0.009480910637631523</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7906206193087887</v>
+        <v>0.7890852531197114</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005352515519932821</v>
+        <v>0.004854413260683777</v>
       </c>
     </row>
     <row r="12">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6979939871449305</v>
+        <v>0.6991979222366511</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004194692762949831</v>
+        <v>0.006023276329114618</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7596822385161675</v>
+        <v>0.7581510608304003</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01340341611851537</v>
+        <v>0.01237044746095822</v>
       </c>
       <c r="G12" t="n">
-        <v>0.746684948744076</v>
+        <v>0.7446203505508558</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006132662541294374</v>
+        <v>0.005478868991322377</v>
       </c>
     </row>
     <row r="13">
@@ -2585,22 +2585,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3613216171998787</v>
+        <v>0.363329277816655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007027333290078799</v>
+        <v>0.010624936790144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6769709350857349</v>
+        <v>0.6787436847683217</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0180853799965829</v>
+        <v>0.01813621929857211</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6040643075196362</v>
+        <v>0.6019123594295507</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01135148547514586</v>
+        <v>0.01021362671962098</v>
       </c>
     </row>
     <row r="14">
@@ -2613,22 +2613,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9169</v>
+        <v>0.9174599999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002353720459187981</v>
+        <v>0.005024241236246541</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98444</v>
+        <v>0.98432</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008590692637965796</v>
+        <v>0.0007823042886243253</v>
       </c>
       <c r="G14" t="n">
-        <v>0.92526</v>
+        <v>0.92466</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00174441967427564</v>
+        <v>0.001558204094462604</v>
       </c>
     </row>
     <row r="15">
@@ -2641,22 +2641,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6979939871449305</v>
+        <v>0.6991979222366512</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004194692762949834</v>
+        <v>0.0060232763291146</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7596822385161672</v>
+        <v>0.7581510608304003</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01340341611851542</v>
+        <v>0.01237044746095827</v>
       </c>
       <c r="G15" t="n">
-        <v>0.746684948744076</v>
+        <v>0.7446203505508558</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006132662541294334</v>
+        <v>0.005478868991322348</v>
       </c>
     </row>
   </sheetData>
@@ -2725,22 +2725,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>477.8</v>
+        <v>478.4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.457553716385176</v>
+        <v>6.655824516917495</v>
       </c>
       <c r="E2" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8944271909999159</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G2" t="n">
-        <v>164.2</v>
+        <v>163.2</v>
       </c>
       <c r="H2" t="n">
-        <v>18.18515878401946</v>
+        <v>16.11521020650988</v>
       </c>
     </row>
     <row r="3">
@@ -2753,10 +2753,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>735.6</v>
+        <v>734.8</v>
       </c>
       <c r="D3" t="n">
-        <v>41.54274906647368</v>
+        <v>38.83555072353165</v>
       </c>
       <c r="E3" t="n">
         <v>1846.8</v>
@@ -2765,10 +2765,10 @@
         <v>0.8366600265340756</v>
       </c>
       <c r="G3" t="n">
-        <v>1616</v>
+        <v>1616.4</v>
       </c>
       <c r="H3" t="n">
-        <v>8.031189202104505</v>
+        <v>6.913754406977442</v>
       </c>
     </row>
     <row r="4">
@@ -2781,10 +2781,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>642.4</v>
+        <v>643.2</v>
       </c>
       <c r="D4" t="n">
-        <v>41.54274906647368</v>
+        <v>38.83555072353165</v>
       </c>
       <c r="E4" t="n">
         <v>2.2</v>
@@ -2793,10 +2793,10 @@
         <v>0.8366600265340756</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="H4" t="n">
-        <v>8.031189202104505</v>
+        <v>6.913754406977442</v>
       </c>
     </row>
     <row r="5">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.2</v>
+        <v>53.6</v>
       </c>
       <c r="D5" t="n">
-        <v>6.457553716385176</v>
+        <v>6.655824516917495</v>
       </c>
       <c r="E5" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8944271909999159</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G5" t="n">
-        <v>102.8</v>
+        <v>103.8</v>
       </c>
       <c r="H5" t="n">
-        <v>18.18515878401946</v>
+        <v>16.11521020650987</v>
       </c>
     </row>
     <row r="6">
@@ -2837,22 +2837,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6352879581151832</v>
+        <v>0.6351832460732985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01864565434558857</v>
+        <v>0.01719957046234738</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9849214659685865</v>
+        <v>0.9850261780104713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006826389953091782</v>
+        <v>0.0005969504843451093</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9320418848167538</v>
+        <v>0.9317277486910994</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00557044443068918</v>
+        <v>0.004975199588776781</v>
       </c>
     </row>
     <row r="7">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4269471453933193</v>
+        <v>0.4268921630941381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01235698534783796</v>
+        <v>0.0113077692864235</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9401993723046355</v>
+        <v>0.940730672835936</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02170832298041146</v>
+        <v>0.02066949349479658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8613967999260534</v>
+        <v>0.8617921726495161</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02543715221078668</v>
+        <v>0.02139187273980032</v>
       </c>
     </row>
     <row r="8">
@@ -2893,22 +2893,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8981203007518797</v>
+        <v>0.899248120300752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01213825886538565</v>
+        <v>0.01251094834007047</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5639344262295081</v>
+        <v>0.5672131147540984</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01466274083606417</v>
+        <v>0.01869140041146126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6149812734082397</v>
+        <v>0.6112359550561799</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06810920892891184</v>
+        <v>0.06035659253374485</v>
       </c>
     </row>
     <row r="9">
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5338200000000001</v>
+        <v>0.53322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03017278575140189</v>
+        <v>0.02819081410672633</v>
       </c>
       <c r="E9" t="n">
         <v>0.99882</v>
@@ -2933,10 +2933,10 @@
         <v>0.0004549725266431357</v>
       </c>
       <c r="G9" t="n">
-        <v>0.98356</v>
+        <v>0.9837999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004905914797466417</v>
+        <v>0.004234383071948049</v>
       </c>
     </row>
     <row r="10">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5785884934461955</v>
+        <v>0.5787902391068975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008362331439286018</v>
+        <v>0.007523334355796976</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7048766913825824</v>
+        <v>0.7074502238883683</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01263012667485021</v>
+        <v>0.012637078075448</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7149409381841983</v>
+        <v>0.7131477990751767</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03530847937398211</v>
+        <v>0.03109893630735512</v>
       </c>
     </row>
     <row r="11">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.628415057021573</v>
+        <v>0.6283916950258138</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01483553830240907</v>
+        <v>0.01364512845771383</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8485698763285809</v>
+        <v>0.8498833146839375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006466550573715047</v>
+        <v>0.006447211027958149</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8381738195083859</v>
+        <v>0.8371943817680341</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01892287549533459</v>
+        <v>0.01668720360430047</v>
       </c>
     </row>
     <row r="12">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7159687135109182</v>
+        <v>0.7162423475233803</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0096855471602443</v>
+        <v>0.008734440259096194</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7813722969438508</v>
+        <v>0.783011641206146</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007365017677108375</v>
+        <v>0.009265081226105526</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7992739598934078</v>
+        <v>0.7975230292627217</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03170142728480908</v>
+        <v>0.0281314102891671</v>
       </c>
     </row>
     <row r="13">
@@ -3033,22 +3033,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.393495536460809</v>
+        <v>0.394071095715093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01398177127208184</v>
+        <v>0.01250214903811268</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7218065452534659</v>
+        <v>0.7240858551123703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01427227629926991</v>
+        <v>0.01276633684655989</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6916502708474221</v>
+        <v>0.6898035194783904</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03162815868349839</v>
+        <v>0.02823582687238753</v>
       </c>
     </row>
     <row r="14">
@@ -3061,22 +3061,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.93154</v>
+        <v>0.9321999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004503665174055457</v>
+        <v>0.004985980344927188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9858</v>
+        <v>0.9859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004472135954999522</v>
+        <v>0.0005700877125495792</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9402999999999999</v>
+        <v>0.93976</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009655827256118446</v>
+        <v>0.008572805841730011</v>
       </c>
     </row>
     <row r="15">
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7159687135109181</v>
+        <v>0.7162423475233802</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009685547160244282</v>
+        <v>0.008734440259096237</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7813722969438508</v>
+        <v>0.783011641206146</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007365017677108375</v>
+        <v>0.009265081226105492</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7992739598934078</v>
+        <v>0.7975230292627217</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03170142728480911</v>
+        <v>0.02813141028916715</v>
       </c>
     </row>
   </sheetData>
